--- a/XLSX/DataBases_Queries.xlsx
+++ b/XLSX/DataBases_Queries.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrazavian/Dropbox/My Papers/SLR_Rationality_Intuition_ 2020/SLR 2022/Revision2/Replication Package Material/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20173669\Documents\School\Master\SA Maryam\Extra Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6AFC69-8CDA-6545-98FE-2FDD215A9772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44883EDC-9ABE-4229-A8CB-E213EAF882D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35080" yWindow="-660" windowWidth="29040" windowHeight="16000" xr2:uid="{7E89EA34-05DB-47E2-A23C-5F70B7FF8548}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13980" windowHeight="15750" xr2:uid="{7E89EA34-05DB-47E2-A23C-5F70B7FF8548}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="DatabaseQueries" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>SpringerLink</t>
   </si>
@@ -159,12 +159,33 @@
   <si>
     <t>Total</t>
   </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.webofscience.com/ </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +209,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +230,14 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -344,12 +379,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,17 +433,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -695,119 +764,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357FE9B8-41C6-8E4F-BA69-DE8D6F8CDECE}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="82.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:3" ht="170" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7">
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9">
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="160" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9">
         <v>296</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="208" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9">
         <v>1751</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="256" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="9">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="160" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="12">
         <v>1303</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="18"/>
+      <c r="D10" s="14">
         <v>5297</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{168A0A01-C93E-4063-8AFB-99A44B5BEC82}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{192B696D-FABC-4A64-A3E7-03D3396C7572}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{763E3537-023F-4AB1-B97B-EBBEFF9F0FBB}"/>
+    <hyperlink ref="C8" r:id="rId4" xr:uid="{0579A459-4EEC-4B0D-A28D-4FC7D919D5D4}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{102D8F11-DAB4-4AC8-9A8E-1193EBBB0999}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{2AFCB419-50D6-4259-A21B-C85528F739D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>